--- a/medicine/Premiers secours et secourisme/ISO_7010/ISO_7010.xlsx
+++ b/medicine/Premiers secours et secourisme/ISO_7010/ISO_7010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ISO 7010 est une norme de l’organisation internationale de normalisation présentant les symboles graphiques de sécurité, y compris ceux indiquant les issues de secours. Elle utilise les couleurs et les principes définis dans l'ISO 3864 pour ces symboles et a pour objectif de fournir "des informations de sécurité qui reposent le moins possible sur l'utilisation de mots pour la compréhension"[1]. Ce système se distingue du système général harmonisé de classification et d'étiquetage des produits chimiques spécifié par les Nations unies en ce qui concerne la normalisation de la classification et de l'étiquetage des matières dangereuses .
-Depuis juillet 2019, la dernière version est l'ISO 7010:2019[2],[3]. Cette révision incorpore tous les précédents, ainsi que les signaux de sécurité pour l'eau et les drapeaux pour la sécurité des plages précédemment spécifiés dans l'ISO 20712-1 à présent retirée[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ISO 7010 est une norme de l’organisation internationale de normalisation présentant les symboles graphiques de sécurité, y compris ceux indiquant les issues de secours. Elle utilise les couleurs et les principes définis dans l'ISO 3864 pour ces symboles et a pour objectif de fournir "des informations de sécurité qui reposent le moins possible sur l'utilisation de mots pour la compréhension". Ce système se distingue du système général harmonisé de classification et d'étiquetage des produits chimiques spécifié par les Nations unies en ce qui concerne la normalisation de la classification et de l'étiquetage des matières dangereuses .
+Depuis juillet 2019, la dernière version est l'ISO 7010:2019,. Cette révision incorpore tous les précédents, ainsi que les signaux de sécurité pour l'eau et les drapeaux pour la sécurité des plages précédemment spécifiés dans l'ISO 20712-1 à présent retirée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Forme et couleur des types de signaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ISO 7010 spécifie cinq combinaisons de forme et de couleur pour distinguer le type d'informations présentées[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ISO 7010 spécifie cinq combinaisons de forme et de couleur pour distinguer le type d'informations présentées,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Évacuation et premiers secours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre E provient du mot anglais emergency qui veut dire urgence.
 			E001 – Sortie de secours (gauche)
@@ -591,7 +607,9 @@
           <t>Sécurité incendie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre F provient du mot anglais fire qui veut dire incendie.
 			F001 – Extincteur
@@ -629,7 +647,9 @@
           <t>Obligation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre M provient du mot anglais mandatory qui veut dire obligatoire.
 			M001 – Obligation générale
@@ -715,7 +735,9 @@
           <t>Interdiction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre P provient du mot anglais prohibition qui veut dire interdiction. 
 			P001 – Interdiction générale
@@ -779,7 +801,9 @@
           <t>Danger</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La lettre W provient du mot anglais warning qui veut dire avertissement.
 			W001 – Danger général
